--- a/input/check_list.xlsx
+++ b/input/check_list.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>check</t>
   </si>
@@ -47,19 +47,22 @@
     <t>check_3</t>
   </si>
   <si>
-    <t>check_4</t>
-  </si>
-  <si>
-    <t>check survey time taken</t>
-  </si>
-  <si>
-    <t>check other responses</t>
-  </si>
-  <si>
-    <t>check outliers</t>
-  </si>
-  <si>
-    <t>check duplicated uuid (if any)</t>
+    <t>consent == "no"</t>
+  </si>
+  <si>
+    <t>check surveys with consents declined</t>
+  </si>
+  <si>
+    <t>ki_age &gt; 90</t>
+  </si>
+  <si>
+    <t>check ki_age greather than 90 years</t>
+  </si>
+  <si>
+    <t>average_monthly_income &lt; 60 | average_monthly_income &gt; 300</t>
+  </si>
+  <si>
+    <t>check if average monhtly income is less than 60 or greether then 300</t>
   </si>
 </sst>
 </file>
@@ -403,18 +406,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="31.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -433,6 +436,9 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -441,28 +447,26 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C5"/>
+  <autoFilter ref="A1:C4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
